--- a/CoolGirl_rev6.x/hardware/bom.xlsx
+++ b/CoolGirl_rev6.x/hardware/bom.xlsx
@@ -711,13 +711,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="56.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
